--- a/data/trans_orig/P16A18-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6F57829-9696-4C97-9F78-D6468FAA88A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C65F65D-4FC2-4010-A553-2AB9D9DAE795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{368EEB69-CE83-4041-AAA5-BBA686A32404}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8289F514-7A41-45E1-A7F4-CF9BBA117348}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="112">
   <si>
     <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2007 (Tasa respuesta: 50,59%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>1,8%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>98,2%</t>
   </si>
   <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>8,13%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
   </si>
   <si>
     <t>91,87%</t>
   </si>
   <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -128,37 +128,37 @@
     <t>13,04%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
   </si>
   <si>
     <t>86,96%</t>
   </si>
   <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -170,73 +170,73 @@
     <t>2,38%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
   </si>
   <si>
     <t>97,62%</t>
   </si>
   <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
   </si>
   <si>
     <t>9,12%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
   </si>
   <si>
     <t>90,88%</t>
   </si>
   <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
   </si>
   <si>
     <t>9,16%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
   </si>
   <si>
     <t>90,84%</t>
   </si>
   <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
   </si>
   <si>
     <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2015 (Tasa respuesta: 50,81%)</t>
@@ -245,73 +245,73 @@
     <t>1,59%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>98,41%</t>
   </si>
   <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
   </si>
   <si>
     <t>94,8%</t>
   </si>
   <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
   <si>
     <t>6,01%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
   </si>
   <si>
     <t>93,99%</t>
   </si>
   <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
   </si>
   <si>
     <t>95,69%</t>
   </si>
   <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
   </si>
   <si>
     <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2023 (Tasa respuesta: 61,25%)</t>
@@ -320,67 +320,61 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
+    <t>1,35%</t>
   </si>
   <si>
     <t>98,06%</t>
   </si>
   <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>98,65%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
   </si>
   <si>
     <t>97,17%</t>
   </si>
   <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
 </sst>
 </file>
@@ -792,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5811E279-F2A3-4C34-ADD4-E2C9E22708E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC933E8-A69E-431C-A4A6-A8995613897B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1519,7 +1513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13430CE0-E3CA-461A-8B7C-7B16D1996124}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9B8D08-DCC4-429E-96A0-65994CCE1939}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2246,7 +2240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF269EF3-37F3-41B7-A138-E942C85EDEFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F24C52-A977-4614-942E-C06C394EB5B3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2973,7 +2967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9A7AFE-E544-462E-9BE4-58C96C69E21D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BA5C0C-3510-4AEE-A60F-D36CFCCE850B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3265,7 +3259,7 @@
         <v>99</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -3280,7 +3274,7 @@
         <v>99</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3302,13 @@
         <v>2201991</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M8" s="7">
         <v>2872</v>
@@ -3323,13 +3317,13 @@
         <v>2201991</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3402,13 @@
         <v>20172</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -3423,13 +3417,13 @@
         <v>20172</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,13 +3451,13 @@
         <v>692750</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M11" s="7">
         <v>982</v>
@@ -3472,13 +3466,13 @@
         <v>692750</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,10 +3554,10 @@
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -3575,10 +3569,10 @@
         <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,10 +3603,10 @@
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M14" s="7">
         <v>5271</v>
@@ -3624,10 +3618,10 @@
         <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A18-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C65F65D-4FC2-4010-A553-2AB9D9DAE795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75E54A49-E346-4B2D-90B0-6B87EF91F918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8289F514-7A41-45E1-A7F4-CF9BBA117348}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C7D7CA51-1547-46CE-8C84-6407C09D34AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="114">
   <si>
     <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2007 (Tasa respuesta: 50,59%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>1,8%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>98,2%</t>
   </si>
   <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>8,13%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
   </si>
   <si>
     <t>91,87%</t>
   </si>
   <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -128,7 +128,7 @@
     <t>13,04%</t>
   </si>
   <si>
-    <t>10,09%</t>
+    <t>10,27%</t>
   </si>
   <si>
     <t>16,38%</t>
@@ -140,25 +140,25 @@
     <t>83,62%</t>
   </si>
   <si>
-    <t>89,91%</t>
+    <t>89,73%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -170,178 +170,184 @@
     <t>2,38%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
   </si>
   <si>
     <t>97,62%</t>
   </si>
   <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
   </si>
   <si>
     <t>9,12%</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
   </si>
   <si>
     <t>90,88%</t>
   </si>
   <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
   </si>
   <si>
     <t>9,16%</t>
   </si>
   <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
   </si>
   <si>
     <t>90,84%</t>
   </si>
   <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2015 (Tasa respuesta: 50,81%)</t>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2016 (Tasa respuesta: 50,81%)</t>
   </si>
   <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>1,0%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2023 (Tasa respuesta: 61,25%)</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>98,41%</t>
+    <t>98,06%</t>
   </si>
   <si>
     <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2023 (Tasa respuesta: 61,25%)</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
   </si>
   <si>
     <t>98,65%</t>
@@ -786,7 +792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC933E8-A69E-431C-A4A6-A8995613897B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E4FC0D-5671-4371-B7A2-DCEED70A746C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1513,7 +1519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9B8D08-DCC4-429E-96A0-65994CCE1939}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5B6741-DAB0-4CBE-B15E-3DA8EAA675F7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2240,7 +2246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F24C52-A977-4614-942E-C06C394EB5B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580520DA-A261-498A-8215-300AE6857A5D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2967,7 +2973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BA5C0C-3510-4AEE-A60F-D36CFCCE850B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5151F9-6BF6-4466-837E-E6C878FAA6FE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3259,7 +3265,7 @@
         <v>99</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -3274,7 +3280,7 @@
         <v>99</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,13 +3308,13 @@
         <v>2201991</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M8" s="7">
         <v>2872</v>
@@ -3317,13 +3323,13 @@
         <v>2201991</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3408,13 @@
         <v>20172</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -3417,13 +3423,13 @@
         <v>20172</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3457,13 @@
         <v>692750</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M11" s="7">
         <v>982</v>
@@ -3466,13 +3472,13 @@
         <v>692750</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,10 +3560,10 @@
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -3569,10 +3575,10 @@
         <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,10 +3609,10 @@
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M14" s="7">
         <v>5271</v>
@@ -3618,10 +3624,10 @@
         <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A18-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75E54A49-E346-4B2D-90B0-6B87EF91F918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BEB7A9F-E376-45B3-8BF3-C5ED83A2E178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C7D7CA51-1547-46CE-8C84-6407C09D34AA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FF4E9EA5-106F-4E3B-A663-9ACEBBC3A1AB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -80,307 +80,307 @@
     <t>1,8%</t>
   </si>
   <si>
-    <t>1,17%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2012 (Tasa respuesta: 50,41%)</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2016 (Tasa respuesta: 50,81%)</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2023 (Tasa respuesta: 61,25%)</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,2%</t>
+    <t>98,06%</t>
   </si>
   <si>
     <t>97,33%</t>
   </si>
   <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2012 (Tasa respuesta: 50,41%)</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2016 (Tasa respuesta: 50,81%)</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2023 (Tasa respuesta: 61,25%)</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
+    <t>98,61%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
   </si>
   <si>
     <t>97,17%</t>
   </si>
   <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
 </sst>
 </file>
@@ -792,7 +792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E4FC0D-5671-4371-B7A2-DCEED70A746C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1600583B-ACE1-4E5A-B9D1-81AC58D4444F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1519,7 +1519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5B6741-DAB0-4CBE-B15E-3DA8EAA675F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC168397-BF3A-48CB-9547-638139049B39}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2246,7 +2246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580520DA-A261-498A-8215-300AE6857A5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0A9141-243F-4785-84EE-BFA938DBBC0B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2973,7 +2973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5151F9-6BF6-4466-837E-E6C878FAA6FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587BF54D-DEDD-4342-8D7D-7CED245AE824}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16A18-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BEB7A9F-E376-45B3-8BF3-C5ED83A2E178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FF36A66-C531-471B-BA0F-F764D7FCE621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FF4E9EA5-106F-4E3B-A663-9ACEBBC3A1AB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{75D4DC32-D620-47C0-81E4-A8EB850DBA61}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -317,70 +317,70 @@
     <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2023 (Tasa respuesta: 61,25%)</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
 </sst>
 </file>
@@ -792,7 +792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1600583B-ACE1-4E5A-B9D1-81AC58D4444F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2FA015-C9A2-4E6D-93A0-E0F888E6E563}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1422,7 +1422,7 @@
         <v>3086</v>
       </c>
       <c r="I14" s="7">
-        <v>3162565</v>
+        <v>3162564</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>37</v>
@@ -1437,7 +1437,7 @@
         <v>3086</v>
       </c>
       <c r="N14" s="7">
-        <v>3162565</v>
+        <v>3162564</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>37</v>
@@ -1471,7 +1471,7 @@
         <v>3294</v>
       </c>
       <c r="I15" s="7">
-        <v>3377340</v>
+        <v>3377339</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1486,7 +1486,7 @@
         <v>3294</v>
       </c>
       <c r="N15" s="7">
-        <v>3377340</v>
+        <v>3377339</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1519,7 +1519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC168397-BF3A-48CB-9547-638139049B39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE9ED24-68E7-4AA9-906D-E60E0CA898BF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2246,7 +2246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0A9141-243F-4785-84EE-BFA938DBBC0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32310780-79F0-4597-82E0-2F41816D84E6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2973,7 +2973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587BF54D-DEDD-4342-8D7D-7CED245AE824}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931DEF0D-B8C3-493C-8E9E-8C7228A08CBF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3107,7 +3107,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>4404</v>
+        <v>4114</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -3122,7 +3122,7 @@
         <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>4404</v>
+        <v>4114</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>92</v>
@@ -3156,7 +3156,7 @@
         <v>1417</v>
       </c>
       <c r="I5" s="7">
-        <v>827521</v>
+        <v>747948</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>95</v>
@@ -3171,7 +3171,7 @@
         <v>1417</v>
       </c>
       <c r="N5" s="7">
-        <v>827521</v>
+        <v>747948</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>95</v>
@@ -3205,7 +3205,7 @@
         <v>1424</v>
       </c>
       <c r="I6" s="7">
-        <v>831925</v>
+        <v>752062</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3220,7 +3220,7 @@
         <v>1424</v>
       </c>
       <c r="N6" s="7">
-        <v>831925</v>
+        <v>752062</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3256,7 +3256,7 @@
         <v>45</v>
       </c>
       <c r="I7" s="7">
-        <v>43617</v>
+        <v>40424</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>98</v>
@@ -3265,13 +3265,13 @@
         <v>99</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
       </c>
       <c r="N7" s="7">
-        <v>43617</v>
+        <v>40424</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>98</v>
@@ -3280,7 +3280,7 @@
         <v>99</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,31 +3305,31 @@
         <v>2872</v>
       </c>
       <c r="I8" s="7">
-        <v>2201991</v>
+        <v>2193784</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M8" s="7">
         <v>2872</v>
       </c>
       <c r="N8" s="7">
-        <v>2201991</v>
+        <v>2193784</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,7 +3354,7 @@
         <v>2917</v>
       </c>
       <c r="I9" s="7">
-        <v>2245608</v>
+        <v>2234208</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3369,7 +3369,7 @@
         <v>2917</v>
       </c>
       <c r="N9" s="7">
-        <v>2245608</v>
+        <v>2234208</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3405,31 +3405,31 @@
         <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>20172</v>
+        <v>19126</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>20172</v>
+        <v>19126</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,31 +3454,31 @@
         <v>982</v>
       </c>
       <c r="I11" s="7">
-        <v>692750</v>
+        <v>640436</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M11" s="7">
         <v>982</v>
       </c>
       <c r="N11" s="7">
-        <v>692750</v>
+        <v>640436</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,7 +3503,7 @@
         <v>1002</v>
       </c>
       <c r="I12" s="7">
-        <v>712922</v>
+        <v>659562</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3518,7 +3518,7 @@
         <v>1002</v>
       </c>
       <c r="N12" s="7">
-        <v>712922</v>
+        <v>659562</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3554,31 +3554,31 @@
         <v>72</v>
       </c>
       <c r="I13" s="7">
-        <v>68194</v>
+        <v>63664</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
       </c>
       <c r="N13" s="7">
-        <v>68194</v>
+        <v>63664</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,10 +3603,10 @@
         <v>5271</v>
       </c>
       <c r="I14" s="7">
-        <v>3722261</v>
+        <v>3582168</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>112</v>
@@ -3618,10 +3618,10 @@
         <v>5271</v>
       </c>
       <c r="N14" s="7">
-        <v>3722261</v>
+        <v>3582168</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>112</v>
@@ -3652,7 +3652,7 @@
         <v>5343</v>
       </c>
       <c r="I15" s="7">
-        <v>3790455</v>
+        <v>3645832</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3667,7 +3667,7 @@
         <v>5343</v>
       </c>
       <c r="N15" s="7">
-        <v>3790455</v>
+        <v>3645832</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
